--- a/webScrapping/espn_scrapper/IPL/Delhi Capitals/Quinton de Kock †.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Delhi Capitals/Quinton de Kock †.xlsx
@@ -474,13 +474,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 31 2020</v>
+        <v xml:space="preserve"> Oct 11 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>Mumbai won by 9 wickets (with 34 balls remaining)</v>
+        <v>Mumbai won by 5 wickets (with 2 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Delhi Capitals</v>
@@ -492,30 +492,30 @@
         <v>Quinton de Kock †</v>
       </c>
       <c r="G3" t="str">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H3" t="str">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I3" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" t="str">
-        <v>92.85</v>
+        <v>147.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Oct 11 2020</v>
+        <v xml:space="preserve"> Oct 31 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C4" t="str">
-        <v>Mumbai won by 5 wickets (with 2 balls remaining)</v>
+        <v>Mumbai won by 9 wickets (with 34 balls remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Delhi Capitals</v>
@@ -527,19 +527,19 @@
         <v>Quinton de Kock †</v>
       </c>
       <c r="G4" t="str">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H4" t="str">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I4" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>147.22</v>
+        <v>92.85</v>
       </c>
     </row>
   </sheetData>
